--- a/tex/conteudo/cap_balancacomercial/bc.xlsx
+++ b/tex/conteudo/cap_balancacomercial/bc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name=" Balança comercial TO 2020" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="78">
   <si>
     <t xml:space="preserve">exportação</t>
   </si>
@@ -230,10 +230,31 @@
     <t xml:space="preserve">produto</t>
   </si>
   <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carne bovina (fresca/congelada ou refrigerada)</t>
   </si>
   <si>
+    <t xml:space="preserve">Carne bovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farelos de soja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demais produtos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adubos ou fertilizantes químicos (exceto fertilizantes brutos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adubos ou fertilizantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Óleos combustíveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumentos médicos</t>
   </si>
   <si>
     <t xml:space="preserve">pais</t>
@@ -253,7 +274,7 @@
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -282,6 +303,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="16">
@@ -424,7 +451,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -557,6 +584,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -640,11 +671,11 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F67" activeCellId="0" sqref="F67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.86"/>
@@ -3132,11 +3163,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3252,11 +3283,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
@@ -3372,11 +3403,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
@@ -3490,13 +3521,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.92"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3506,6 +3540,9 @@
         <v>66</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3516,7 +3553,10 @@
       <c r="B2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>314000000</v>
       </c>
     </row>
@@ -3527,7 +3567,10 @@
       <c r="B3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>498000000</v>
       </c>
     </row>
@@ -3538,7 +3581,10 @@
       <c r="B4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>580000000</v>
       </c>
     </row>
@@ -3549,7 +3595,10 @@
       <c r="B5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>455000000</v>
       </c>
     </row>
@@ -3560,7 +3609,10 @@
       <c r="B6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>605000000</v>
       </c>
     </row>
@@ -3569,9 +3621,12 @@
         <v>2016</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>61800000</v>
       </c>
     </row>
@@ -3580,9 +3635,12 @@
         <v>2017</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>60700000</v>
       </c>
     </row>
@@ -3591,9 +3649,12 @@
         <v>2018</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <v>51300000</v>
       </c>
     </row>
@@ -3602,9 +3663,12 @@
         <v>2019</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>67800000</v>
       </c>
     </row>
@@ -3613,9 +3677,12 @@
         <v>2020</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>153000000</v>
       </c>
     </row>
@@ -3626,7 +3693,10 @@
       <c r="B12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <v>3710000</v>
       </c>
     </row>
@@ -3637,7 +3707,10 @@
       <c r="B13" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>481000</v>
       </c>
     </row>
@@ -3648,7 +3721,10 @@
       <c r="B14" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <v>5630000</v>
       </c>
     </row>
@@ -3659,7 +3735,10 @@
       <c r="B15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>20800000</v>
       </c>
     </row>
@@ -3670,7 +3749,10 @@
       <c r="B16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>7990000</v>
       </c>
     </row>
@@ -3681,7 +3763,10 @@
       <c r="B17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <v>23900000</v>
       </c>
     </row>
@@ -3692,7 +3777,10 @@
       <c r="B18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <v>17300000</v>
       </c>
     </row>
@@ -3703,7 +3791,10 @@
       <c r="B19" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <v>8470000</v>
       </c>
     </row>
@@ -3714,7 +3805,10 @@
       <c r="B20" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="0" t="n">
         <v>8750000</v>
       </c>
     </row>
@@ -3725,7 +3819,10 @@
       <c r="B21" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="0" t="n">
         <v>7170000</v>
       </c>
     </row>
@@ -3736,7 +3833,10 @@
       <c r="B22" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="0" t="n">
         <v>23900000</v>
       </c>
     </row>
@@ -3747,7 +3847,10 @@
       <c r="B23" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="0" t="n">
         <v>17300000</v>
       </c>
     </row>
@@ -3758,7 +3861,10 @@
       <c r="B24" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="0" t="n">
         <v>8470000</v>
       </c>
     </row>
@@ -3769,7 +3875,10 @@
       <c r="B25" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="0" t="n">
         <v>8750000</v>
       </c>
     </row>
@@ -3780,7 +3889,10 @@
       <c r="B26" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="0" t="n">
         <v>7170000</v>
       </c>
     </row>
@@ -3800,13 +3912,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.8"/>
   </cols>
@@ -3819,6 +3931,9 @@
         <v>66</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3827,9 +3942,12 @@
         <v>2016</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>7860000</v>
       </c>
     </row>
@@ -3838,9 +3956,12 @@
         <v>2017</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>14800000</v>
       </c>
     </row>
@@ -3849,9 +3970,12 @@
         <v>2018</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>25000000</v>
       </c>
     </row>
@@ -3860,9 +3984,12 @@
         <v>2019</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>29000000</v>
       </c>
     </row>
@@ -3871,9 +3998,12 @@
         <v>2020</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>31300000</v>
       </c>
     </row>
@@ -3884,7 +4014,10 @@
       <c r="B7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>5660000</v>
       </c>
     </row>
@@ -3895,7 +4028,10 @@
       <c r="B8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>4550000</v>
       </c>
     </row>
@@ -3906,7 +4042,10 @@
       <c r="B9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <v>7960000</v>
       </c>
     </row>
@@ -3917,7 +4056,10 @@
       <c r="B10" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>9000000</v>
       </c>
     </row>
@@ -3928,7 +4070,10 @@
       <c r="B11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>3800000</v>
       </c>
     </row>
@@ -3939,7 +4084,10 @@
       <c r="B12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <v>6560000</v>
       </c>
     </row>
@@ -3950,7 +4098,10 @@
       <c r="B13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>9540000</v>
       </c>
     </row>
@@ -3961,7 +4112,10 @@
       <c r="B14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <v>12700000</v>
       </c>
     </row>
@@ -3972,7 +4126,10 @@
       <c r="B15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>4860000</v>
       </c>
     </row>
@@ -3983,7 +4140,10 @@
       <c r="B16" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>2840000</v>
       </c>
     </row>
@@ -3994,7 +4154,10 @@
       <c r="B17" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <v>7490000</v>
       </c>
     </row>
@@ -4005,7 +4168,10 @@
       <c r="B18" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <v>50100000</v>
       </c>
     </row>
@@ -4016,7 +4182,10 @@
       <c r="B19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <v>38500000</v>
       </c>
     </row>
@@ -4027,7 +4196,10 @@
       <c r="B20" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="0" t="n">
         <v>8540000</v>
       </c>
     </row>
@@ -4038,7 +4210,10 @@
       <c r="B21" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="0" t="n">
         <v>2460000</v>
       </c>
     </row>
@@ -4049,7 +4224,10 @@
       <c r="B22" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="0" t="n">
         <v>9280</v>
       </c>
     </row>
@@ -4060,7 +4238,10 @@
       <c r="B23" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0" t="n">
         <v>4750</v>
       </c>
     </row>
@@ -4071,7 +4252,10 @@
       <c r="B24" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="0" t="n">
         <v>671</v>
       </c>
     </row>
@@ -4082,7 +4266,10 @@
       <c r="B25" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="0" t="n">
         <v>10500</v>
       </c>
     </row>
@@ -4093,7 +4280,10 @@
       <c r="B26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="0" t="n">
         <v>2440000</v>
       </c>
     </row>
@@ -4115,18 +4305,18 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>77</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>65</v>
@@ -4136,7 +4326,7 @@
       <c r="A2" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="34" t="n">
         <v>0.63</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -4147,7 +4337,7 @@
       <c r="A3" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="34" t="n">
         <v>0.062</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -4158,7 +4348,7 @@
       <c r="A4" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="34" t="n">
         <v>0.033</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -4169,7 +4359,7 @@
       <c r="A5" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="33" t="n">
+      <c r="B5" s="34" t="n">
         <v>0.031</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -4180,7 +4370,7 @@
       <c r="A6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="33" t="n">
+      <c r="B6" s="34" t="n">
         <v>0.028</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -4205,23 +4395,23 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>65</v>
       </c>
     </row>

--- a/tex/conteudo/cap_balancacomercial/bc.xlsx
+++ b/tex/conteudo/cap_balancacomercial/bc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" Balança comercial TO 2020" sheetId="1" state="visible" r:id="rId2"/>
@@ -274,7 +274,7 @@
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -303,12 +303,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="16">
@@ -451,7 +445,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -584,10 +578,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -671,11 +661,11 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.86"/>
@@ -3164,10 +3154,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3179,7 +3169,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="n">
-        <v>40178</v>
+        <v>39814</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>280000000</v>
@@ -3187,7 +3177,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="n">
-        <v>40543</v>
+        <v>40179</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>344000000</v>
@@ -3195,7 +3185,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="n">
-        <v>40890</v>
+        <v>40544</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>486000000</v>
@@ -3203,7 +3193,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="n">
-        <v>41274</v>
+        <v>40909</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>640000000</v>
@@ -3211,7 +3201,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="n">
-        <v>41639</v>
+        <v>41275</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>702000000</v>
@@ -3219,7 +3209,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="n">
-        <v>42004</v>
+        <v>41640</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>859000000</v>
@@ -3227,7 +3217,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="n">
-        <v>42369</v>
+        <v>42005</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>901000000</v>
@@ -3235,7 +3225,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="n">
-        <v>42735</v>
+        <v>42370</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>633000000</v>
@@ -3243,7 +3233,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="n">
-        <v>43100</v>
+        <v>42736</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>951000000</v>
@@ -3251,7 +3241,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="n">
-        <v>43465</v>
+        <v>43101</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1200000000</v>
@@ -3259,7 +3249,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="n">
-        <v>43830</v>
+        <v>43466</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1110000000</v>
@@ -3284,10 +3274,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
@@ -3299,7 +3289,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="n">
-        <v>40178</v>
+        <v>39814</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>127000000</v>
@@ -3307,7 +3297,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="n">
-        <v>40543</v>
+        <v>40179</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>240000000</v>
@@ -3315,7 +3305,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="n">
-        <v>40890</v>
+        <v>40544</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>162000000</v>
@@ -3323,7 +3313,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="n">
-        <v>41274</v>
+        <v>40909</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>128000000</v>
@@ -3331,7 +3321,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="n">
-        <v>41639</v>
+        <v>41275</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>186000000</v>
@@ -3339,7 +3329,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="n">
-        <v>42004</v>
+        <v>41640</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>239000000</v>
@@ -3347,7 +3337,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="n">
-        <v>42369</v>
+        <v>42005</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>143000000</v>
@@ -3355,7 +3345,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="n">
-        <v>42735</v>
+        <v>42370</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>117000000</v>
@@ -3363,7 +3353,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="n">
-        <v>43100</v>
+        <v>42736</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>215000000</v>
@@ -3371,7 +3361,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="n">
-        <v>43465</v>
+        <v>43101</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>229000000</v>
@@ -3379,7 +3369,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="n">
-        <v>43830</v>
+        <v>43466</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>168000000</v>
@@ -3403,11 +3393,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
@@ -3419,7 +3409,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="n">
-        <v>40178</v>
+        <v>39814</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>153000000</v>
@@ -3427,7 +3417,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="n">
-        <v>40543</v>
+        <v>40179</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>104000000</v>
@@ -3435,7 +3425,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="n">
-        <v>40890</v>
+        <v>40544</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>324000000</v>
@@ -3443,7 +3433,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="n">
-        <v>41274</v>
+        <v>40909</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>512000000</v>
@@ -3451,7 +3441,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="n">
-        <v>41639</v>
+        <v>41275</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>516000000</v>
@@ -3459,7 +3449,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="n">
-        <v>42004</v>
+        <v>41640</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>621000000</v>
@@ -3467,7 +3457,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="n">
-        <v>42369</v>
+        <v>42005</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>758000000</v>
@@ -3475,7 +3465,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="n">
-        <v>42735</v>
+        <v>42370</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>516000000</v>
@@ -3483,7 +3473,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="n">
-        <v>43100</v>
+        <v>42736</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>736000000</v>
@@ -3491,7 +3481,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="n">
-        <v>43465</v>
+        <v>43101</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>975000000</v>
@@ -3499,7 +3489,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="n">
-        <v>43830</v>
+        <v>43466</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>943000000</v>
@@ -3527,9 +3517,9 @@
       <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,7 +3908,7 @@
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.8"/>
   </cols>
@@ -4154,7 +4144,7 @@
       <c r="B17" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="0" t="n">
@@ -4168,7 +4158,7 @@
       <c r="B18" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="0" t="n">
@@ -4182,7 +4172,7 @@
       <c r="B19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -4196,7 +4186,7 @@
       <c r="B20" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="0" t="n">
@@ -4210,7 +4200,7 @@
       <c r="B21" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="0" t="n">
@@ -4309,13 +4299,13 @@
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -4326,7 +4316,7 @@
       <c r="A2" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="34" t="n">
+      <c r="B2" s="33" t="n">
         <v>0.63</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -4337,7 +4327,7 @@
       <c r="A3" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="34" t="n">
+      <c r="B3" s="33" t="n">
         <v>0.062</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -4348,7 +4338,7 @@
       <c r="A4" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="34" t="n">
+      <c r="B4" s="33" t="n">
         <v>0.033</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -4359,7 +4349,7 @@
       <c r="A5" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="34" t="n">
+      <c r="B5" s="33" t="n">
         <v>0.031</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -4370,7 +4360,7 @@
       <c r="A6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="34" t="n">
+      <c r="B6" s="33" t="n">
         <v>0.028</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -4399,7 +4389,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.42"/>
   </cols>
@@ -4408,10 +4398,10 @@
       <c r="A1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>65</v>
       </c>
     </row>
